--- a/jpcore-r4/feature/改行テスト/StructureDefinition-JP-CarePlan.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-JP-CarePlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -152,10 +152,6 @@
     <t>1人または複数の医療従事者が特定の患者、グループ、またはコミュニティに一定期間ケアを提供する意図を述べ、特定の状態または一連の状態に限定される場合がある。</t>
   </si>
   <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
@@ -203,79 +199,79 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>CarePlan.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CarePlan.meta.versionId</t>
+  </si>
+  <si>
+    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+  </si>
+  <si>
+    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
+  </si>
+  <si>
+    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>CarePlan.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>CarePlan.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
-  </si>
-  <si>
-    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>拡張子は常にURLで切り片にされます。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CarePlan.meta.versionId</t>
-  </si>
-  <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
-  </si>
-  <si>
-    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
-  </si>
-  <si>
-    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
   </si>
   <si>
     <t>CarePlan.meta.lastUpdated</t>
@@ -1973,13 +1969,13 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>40</v>
@@ -1990,10 +1986,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2004,28 +2000,28 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2075,13 +2071,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2104,10 +2100,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2118,25 +2114,25 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2187,19 +2183,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2216,10 +2212,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2230,7 +2226,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -2242,13 +2238,13 @@
         <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2299,13 +2295,13 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
@@ -2317,7 +2313,7 @@
         <v>40</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>40</v>
@@ -2328,14 +2324,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2354,16 +2350,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2401,19 +2397,19 @@
         <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AF5" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -2425,13 +2421,13 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>40</v>
@@ -2442,10 +2438,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2456,28 +2452,28 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2527,19 +2523,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2556,10 +2552,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2570,28 +2566,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2641,19 +2637,19 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>40</v>
@@ -2670,10 +2666,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2684,28 +2680,28 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2755,19 +2751,19 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2784,10 +2780,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2807,19 +2803,19 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2869,7 +2865,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2881,7 +2877,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2898,10 +2894,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2921,19 +2917,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2959,31 +2955,31 @@
         <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="Z10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2995,7 +2991,7 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>40</v>
@@ -3012,10 +3008,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3035,19 +3031,19 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3073,31 +3069,31 @@
         <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3109,7 +3105,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>40</v>
@@ -3126,10 +3122,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3140,28 +3136,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3211,19 +3207,19 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>40</v>
@@ -3240,10 +3236,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3254,7 +3250,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -3266,16 +3262,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3301,43 +3297,43 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -3354,21 +3350,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
@@ -3380,16 +3376,16 @@
         <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3439,25 +3435,25 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -3468,14 +3464,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3494,16 +3490,16 @@
         <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3553,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3571,7 +3567,7 @@
         <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -3582,14 +3578,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3608,16 +3604,16 @@
         <v>40</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3667,7 +3663,7 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3679,13 +3675,13 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3696,14 +3692,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3716,25 +3712,25 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>40</v>
@@ -3783,7 +3779,7 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3795,13 +3791,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3812,10 +3808,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3835,22 +3831,22 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>40</v>
@@ -3899,7 +3895,7 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -3911,27 +3907,27 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3951,16 +3947,16 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4011,7 +4007,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -4023,13 +4019,13 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -4040,10 +4036,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4063,19 +4059,19 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4125,7 +4121,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4137,13 +4133,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -4154,14 +4150,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4177,20 +4173,20 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>40</v>
@@ -4239,7 +4235,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4251,10 +4247,10 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -4268,14 +4264,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4291,22 +4287,22 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -4355,7 +4351,7 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4367,10 +4363,10 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4384,10 +4380,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4407,19 +4403,19 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4469,7 +4465,7 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4481,7 +4477,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -4498,10 +4494,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4509,34 +4505,34 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="J24" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -4561,63 +4557,63 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4625,34 +4621,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="J25" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>40</v>
@@ -4677,46 +4673,46 @@
         <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4730,10 +4726,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4753,22 +4749,22 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -4793,14 +4789,14 @@
         <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4817,7 +4813,7 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -4829,7 +4825,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -4838,7 +4834,7 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>40</v>
@@ -4846,10 +4842,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4860,25 +4856,25 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4929,19 +4925,19 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
@@ -4958,10 +4954,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4972,29 +4968,29 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>40</v>
@@ -5043,19 +5039,19 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
@@ -5064,7 +5060,7 @@
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>40</v>
@@ -5072,39 +5068,39 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5155,39 +5151,39 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5198,28 +5194,28 @@
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5269,74 +5265,74 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>40</v>
@@ -5385,68 +5381,68 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5497,28 +5493,28 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>40</v>
@@ -5526,10 +5522,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5540,28 +5536,28 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K33" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5611,28 +5607,28 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>40</v>
@@ -5640,10 +5636,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5666,16 +5662,16 @@
         <v>40</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5725,7 +5721,7 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -5737,7 +5733,7 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
@@ -5754,10 +5750,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5780,17 +5776,17 @@
         <v>40</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -5839,7 +5835,7 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -5851,16 +5847,16 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>40</v>
@@ -5868,10 +5864,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5891,22 +5887,22 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -5955,7 +5951,7 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -5967,27 +5963,27 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6010,19 +6006,19 @@
         <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6071,7 +6067,7 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6083,10 +6079,10 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -6100,10 +6096,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6126,19 +6122,19 @@
         <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>40</v>
@@ -6187,7 +6183,7 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6199,27 +6195,27 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6242,17 +6238,17 @@
         <v>40</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6301,7 +6297,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6313,13 +6309,13 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -6330,10 +6326,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6344,7 +6340,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>40</v>
@@ -6356,13 +6352,13 @@
         <v>40</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6413,13 +6409,13 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
@@ -6431,7 +6427,7 @@
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -6442,14 +6438,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6468,16 +6464,16 @@
         <v>40</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6527,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6539,13 +6535,13 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -6556,14 +6552,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6576,25 +6572,25 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>40</v>
@@ -6643,7 +6639,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6655,13 +6651,13 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6672,10 +6668,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6698,16 +6694,16 @@
         <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6733,14 +6729,14 @@
         <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6757,7 +6753,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -6769,7 +6765,7 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
@@ -6786,10 +6782,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6812,19 +6808,19 @@
         <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>40</v>
@@ -6873,7 +6869,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -6885,13 +6881,13 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6902,10 +6898,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6928,19 +6924,19 @@
         <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -6989,7 +6985,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7001,27 +6997,27 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7032,7 +7028,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -7044,19 +7040,19 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>40</v>
@@ -7105,25 +7101,25 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AL46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -7134,10 +7130,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7148,7 +7144,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -7160,17 +7156,17 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7219,25 +7215,25 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -7248,10 +7244,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7262,7 +7258,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
@@ -7274,13 +7270,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7331,13 +7327,13 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>40</v>
@@ -7349,7 +7345,7 @@
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -7360,14 +7356,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7386,16 +7382,16 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7445,7 +7441,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -7457,13 +7453,13 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -7474,14 +7470,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7494,25 +7490,25 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
@@ -7561,7 +7557,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7573,13 +7569,13 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7590,10 +7586,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7604,7 +7600,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -7616,17 +7612,17 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -7651,49 +7647,49 @@
         <v>40</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7704,10 +7700,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7730,17 +7726,17 @@
         <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>40</v>
@@ -7789,7 +7785,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -7801,13 +7797,13 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7818,10 +7814,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7844,19 +7840,19 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -7905,7 +7901,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -7917,13 +7913,13 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7934,10 +7930,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7948,7 +7944,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -7960,19 +7956,19 @@
         <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -7997,63 +7993,63 @@
         <v>40</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8076,16 +8072,16 @@
         <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8111,14 +8107,14 @@
         <v>40</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>40</v>
       </c>
@@ -8135,7 +8131,7 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8147,10 +8143,10 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -8164,10 +8160,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8190,16 +8186,16 @@
         <v>40</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8249,7 +8245,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8261,10 +8257,10 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -8278,10 +8274,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8304,17 +8300,17 @@
         <v>40</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>40</v>
@@ -8363,7 +8359,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -8375,13 +8371,13 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -8392,10 +8388,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8403,34 +8399,34 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -8455,63 +8451,63 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Z58" t="s" s="2">
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8522,7 +8518,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -8534,16 +8530,16 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8593,22 +8589,22 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -8622,10 +8618,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8636,100 +8632,100 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="O60" t="s" s="2">
+      <c r="P60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q60" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="P60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q60" t="s" s="2">
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="R60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8740,10 +8736,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8754,7 +8750,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -8766,17 +8762,17 @@
         <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -8825,39 +8821,39 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8868,7 +8864,7 @@
         <v>38</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8880,19 +8876,19 @@
         <v>40</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>40</v>
@@ -8941,39 +8937,39 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8996,19 +8992,19 @@
         <v>40</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>40</v>
@@ -9057,7 +9053,7 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -9069,27 +9065,27 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9100,7 +9096,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -9112,13 +9108,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9145,74 +9141,74 @@
         <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="Z64" t="s" s="2">
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AA64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -9224,17 +9220,17 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -9283,39 +9279,39 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9326,7 +9322,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>40</v>
@@ -9338,13 +9334,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9395,39 +9391,39 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9438,7 +9434,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
@@ -9450,13 +9446,13 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9507,39 +9503,39 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9562,17 +9558,17 @@
         <v>40</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -9621,7 +9617,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -9633,19 +9629,19 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
